--- a/plots/countries/plot data/Monaco.xlsx
+++ b/plots/countries/plot data/Monaco.xlsx
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0419990188697918</v>
+        <v>0.0419990188697906</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00385003823937344</v>
+        <v>0.00385003823576069</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0176656670186676</v>
+        <v>0.0176656670186686</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0352023147413552</v>
+        <v>0.0352023147446109</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00014577401147761</v>
+        <v>0.000145774011476161</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.000113305226147295</v>
+        <v>-0.000109044024659504</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00066124812247164</v>
+        <v>0.00066124812247122</v>
       </c>
     </row>
     <row r="11">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0386211617791506</v>
+        <v>0.038621161779153</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00395868091111103</v>
+        <v>0.00395868090749938</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0171584799531817</v>
+        <v>0.0171584799531805</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0400759383447257</v>
+        <v>0.0400767284645305</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000185861542861452</v>
+        <v>0.000185861542860282</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.000113479480782018</v>
+        <v>-0.000109207885347059</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00064905308941144</v>
+        <v>0.000649053089410249</v>
       </c>
     </row>
     <row r="20">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0370487220364109</v>
+        <v>0.0370487220364112</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00390451414224674</v>
+        <v>0.00390451413863505</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0457458994697555</v>
+        <v>0.0457452277404199</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000236174065237548</v>
+        <v>0.000236174157664707</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.000115541447388201</v>
+        <v>-0.000111192515275967</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00064928281374939</v>
+        <v>0.00064928281374971</v>
       </c>
     </row>
     <row r="29">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0370921941613296</v>
+        <v>0.0370921941613278</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00388623885401301</v>
+        <v>0.00388623885040121</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0428472669248257</v>
+        <v>0.0428365613861526</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00044808976173068</v>
+        <v>0.000448090504889394</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.000116038622808815</v>
+        <v>-0.000111667836662371</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00064762828421839</v>
+        <v>0.000647628284218497</v>
       </c>
     </row>
     <row r="38">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0350515750775656</v>
+        <v>0.0350515750775633</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00380735788574619</v>
+        <v>0.00380735788213527</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0223987497555627</v>
+        <v>0.0223987497555574</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>0.044196938893322</v>
+        <v>0.0441814439618661</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000509687192899152</v>
+        <v>0.000509695038282035</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.000118739655196808</v>
+        <v>-0.000114268839479111</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00063903899312509</v>
+        <v>0.000639038993124818</v>
       </c>
     </row>
     <row r="47">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0333232674697258</v>
+        <v>0.0333232674697288</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00380248305736109</v>
+        <v>0.00380248305374914</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0223088540174953</v>
+        <v>0.0223088540174903</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0427859961089846</v>
+        <v>0.0427722097036104</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000556111560446596</v>
+        <v>0.000556131801581028</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.000118687051154675</v>
+        <v>-0.000114213848031596</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00063978209731453</v>
+        <v>0.000639782097315261</v>
       </c>
     </row>
     <row r="56">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0353658297963778</v>
+        <v>0.0353658297963755</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00382240698306494</v>
+        <v>0.0038224069794516</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0239318367982656</v>
+        <v>0.023931836798265</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0425789821322574</v>
+        <v>0.0425558577459932</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.000699168824456153</v>
+        <v>0.000699201577601539</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.000115908818621165</v>
+        <v>-0.000111529869890628</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00069225093318951</v>
+        <v>0.000692250933190105</v>
       </c>
     </row>
     <row r="65">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0329660094550129</v>
+        <v>0.0329660094550128</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00377001798564475</v>
+        <v>0.00377001798203298</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0267598533687353</v>
+        <v>0.0267598533687326</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>0.040596013089377</v>
+        <v>0.0405610765520826</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.000838853037092108</v>
+        <v>0.000838897986141802</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.000113192823443888</v>
+        <v>-0.000108905900175061</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00055047335742564</v>
+        <v>0.00055047335742429</v>
       </c>
     </row>
     <row r="74">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0345431220447667</v>
+        <v>0.0345431220447688</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00381405936844121</v>
+        <v>0.00381405936483008</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0251896897815426</v>
+        <v>0.0251896897815591</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0393034375014428</v>
+        <v>0.0392661241511008</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00112907951330019</v>
+        <v>0.00112913550371208</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.000109640887054218</v>
+        <v>-0.000105475611097694</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00060739232626257</v>
+        <v>0.000607392326261861</v>
       </c>
     </row>
     <row r="83">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0343365260805195</v>
+        <v>0.0343365260805205</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00385944890587504</v>
+        <v>0.00385944890226553</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0255025677409293</v>
+        <v>0.025502567740904</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0397233738920719</v>
+        <v>0.0396894313367551</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00135371236228606</v>
+        <v>0.00135377825563787</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.000107325706516914</v>
+        <v>-0.000103238198915772</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00089853884501938</v>
+        <v>0.00089853884501986</v>
       </c>
     </row>
     <row r="92">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0328077567073806</v>
+        <v>0.0328077567073814</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00392381994021051</v>
+        <v>0.00392381993659814</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0262137877243618</v>
+        <v>0.0262137877243804</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0381711238235212</v>
+        <v>0.0381379861295668</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00172094383385725</v>
+        <v>0.00172101882858561</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.00010381151808943</v>
+        <v>-0.0000998442742416701</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00109058423129387</v>
+        <v>0.00109058423129361</v>
       </c>
     </row>
     <row r="101">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0312464951707543</v>
+        <v>0.0312464951707527</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00389124198101336</v>
+        <v>0.00389124197740191</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0276815124112487</v>
+        <v>0.027681512411246</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0378769921299784</v>
+        <v>0.0378716968924316</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00260404079426933</v>
+        <v>0.00260412408276236</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.000101480676967204</v>
+        <v>-0.0000976192299166182</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.00093672644136339</v>
+        <v>0.000936726441363191</v>
       </c>
     </row>
     <row r="110">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0339119299107331</v>
+        <v>0.0339119299107311</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>0.00395104541805853</v>
+        <v>0.00395104541444668</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0247963035196823</v>
+        <v>0.0247963035196933</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0376120103679505</v>
+        <v>0.0376056359106302</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00333841055738309</v>
+        <v>0.00333850119288897</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.0000887584961238366</v>
+        <v>-0.0000849907224041719</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00094673125282086</v>
+        <v>0.000946731252819522</v>
       </c>
     </row>
     <row r="119">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0355525268410274</v>
+        <v>0.0355525268410238</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00394507025160815</v>
+        <v>0.00394507024799554</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0206056653385433</v>
+        <v>0.020605665338544</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0373753215680144</v>
+        <v>0.037376684323963</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00322752538120202</v>
+        <v>0.00322764582802719</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.0000842639993677396</v>
+        <v>-0.0000806386192287227</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00090255238098985</v>
+        <v>0.000902552380990911</v>
       </c>
     </row>
     <row r="128">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0334950587744643</v>
+        <v>0.0334950587744652</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0039448343020368</v>
+        <v>0.00394483429842432</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>0.018324033502415</v>
+        <v>0.0183240335023965</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0365180162187992</v>
+        <v>0.0365179558700764</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00297655003169976</v>
+        <v>0.00297674659792957</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.0000787258265131591</v>
+        <v>-0.0000226567831086713</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00125282004266744</v>
+        <v>0.00125282004266809</v>
       </c>
     </row>
     <row r="137">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0330449191279613</v>
+        <v>0.0330449191279628</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00396311760329307</v>
+        <v>0.00396311759968143</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0182167841141403</v>
+        <v>0.0182167841141543</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0348002080265572</v>
+        <v>0.0348302581332052</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00382889510083782</v>
+        <v>0.00382925774339348</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.0000854399699809722</v>
+        <v>-0.0000820699690706781</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00141515287569602</v>
+        <v>0.00141515287569468</v>
       </c>
     </row>
     <row r="146">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0310128785903026</v>
+        <v>0.0310128785903044</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00391340115980194</v>
+        <v>0.00391340115618944</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0144992105618741</v>
+        <v>0.0144992105618698</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0347678875686655</v>
+        <v>0.0347993916110563</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00506331086761691</v>
+        <v>0.00506392616778206</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.0000857829190235518</v>
+        <v>-0.000049377275884346</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00163937545810997</v>
+        <v>0.00163937545810959</v>
       </c>
     </row>
     <row r="155">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0260696774192339</v>
+        <v>0.0260696774192329</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0038590852086827</v>
+        <v>0.00385908520507171</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0190279271473623</v>
+        <v>0.0190279271473496</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0341157160927062</v>
+        <v>0.0341478466369894</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00592887645943822</v>
+        <v>0.00592984069210682</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.0000911856850682692</v>
+        <v>-0.0000876799485399325</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00152519832930812</v>
+        <v>0.00152519832930888</v>
       </c>
     </row>
     <row r="164">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0272863512040863</v>
+        <v>0.0272863512040857</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00397307259599155</v>
+        <v>0.00397307259238023</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>0.018096861319073</v>
+        <v>0.0180968613190743</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0331889634573304</v>
+        <v>0.0332221390415557</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00703781102104585</v>
+        <v>0.00703911450146881</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.0000852528624404453</v>
+        <v>-0.0000819671066782099</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00159946639565807</v>
+        <v>0.00159946639565708</v>
       </c>
     </row>
     <row r="173">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0274377964266882</v>
+        <v>0.0274377964266864</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00391263429576669</v>
+        <v>0.00391263429215529</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0174456755106796</v>
+        <v>0.0174456755106738</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0306108037695636</v>
+        <v>0.0306559178683081</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00720712306505471</v>
+        <v>0.00720872647381441</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.0000873040424837385</v>
+        <v>-0.0000840794651510531</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00073196541112454</v>
+        <v>0.00073196541112378</v>
       </c>
     </row>
     <row r="182">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0292820661351561</v>
+        <v>0.0292820661351551</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00397360069921432</v>
+        <v>0.00397360069560249</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0172644506549057</v>
+        <v>0.0172644506549141</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0263713795254681</v>
+        <v>0.026416477401667</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00712570735276926</v>
+        <v>0.00712748116769161</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.0000835931166945117</v>
+        <v>-0.0000804252643169961</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0010172395279236</v>
+        <v>0.00101723952792265</v>
       </c>
     </row>
     <row r="191">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0236397562874798</v>
+        <v>0.0236397562874806</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0038127903911572</v>
+        <v>0.00381279030956231</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0194349896853089</v>
+        <v>0.019434989685317</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0283592162326718</v>
+        <v>0.0284000248431232</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.00767998149751813</v>
+        <v>0.00768179764837602</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.0000856465980681585</v>
+        <v>-0.000082404911134907</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00087844054314794</v>
+        <v>0.000878440543146842</v>
       </c>
     </row>
     <row r="200">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0253577252954011</v>
+        <v>0.0253577252954021</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00227502004199651</v>
+        <v>0.00227501938751495</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0204609852553447</v>
+        <v>0.0204609852553668</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0306655861517887</v>
+        <v>0.0307100540953942</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0073488118787789</v>
+        <v>0.00735055827418562</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.0000801381549304014</v>
+        <v>-0.0000770960654041013</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00104289301650709</v>
+        <v>0.00104289301650715</v>
       </c>
     </row>
     <row r="209">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0254613989117036</v>
+        <v>0.0254613989117021</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00243960572801674</v>
+        <v>0.00243960617045184</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0217649293325001</v>
+        <v>0.0217649293324987</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0304666366006723</v>
+        <v>0.0305106459088408</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.008353438188075</v>
+        <v>0.00835504977777433</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.0000744683600475777</v>
+        <v>-0.0000715423289912437</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0010635630028851</v>
+        <v>0.00106356300288486</v>
       </c>
     </row>
     <row r="218">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0223722313668871</v>
+        <v>0.0223722313668859</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00255951296416345</v>
+        <v>0.0025595126536604</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0226783280091277</v>
+        <v>0.0226783280091204</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0280840255927196</v>
+        <v>0.0281279127563016</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00725185809405219</v>
+        <v>0.00725330208582518</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.0000683973773183806</v>
+        <v>-0.0000656290555766151</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00115387356696373</v>
+        <v>0.00115387356696458</v>
       </c>
     </row>
     <row r="227">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0234413287996241</v>
+        <v>0.0234413287996245</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00466353183394169</v>
+        <v>0.00466353068525414</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0239384863617779</v>
+        <v>0.0239384863617832</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0263867239899208</v>
+        <v>0.026429975552412</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00778355564396391</v>
+        <v>0.00778482985995649</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.0000634507889472302</v>
+        <v>0.0000416800966694044</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0011647803291883</v>
+        <v>0.00116478032918859</v>
       </c>
     </row>
     <row r="236">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0221841275505246</v>
+        <v>0.0221841275505237</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00573876344651994</v>
+        <v>0.00573876472436532</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0241534862945894</v>
+        <v>0.0241534862945968</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0254419236692279</v>
+        <v>0.0254828570598055</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00752920902196412</v>
+        <v>0.00752867309205398</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.0000635454833438534</v>
+        <v>-0.0000610009935142649</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.00112625097545296</v>
+        <v>0.00112625097545186</v>
       </c>
     </row>
     <row r="245">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0224053388778413</v>
+        <v>0.0224053388778431</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00507514699814287</v>
+        <v>0.0050751467293807</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>0.023211290142137</v>
+        <v>0.0232112901421371</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0245553011270146</v>
+        <v>0.0245958625795226</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00629689708466127</v>
+        <v>0.00629785166773154</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.0000625450939099199</v>
+        <v>-0.0000600637423688353</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00115774248672889</v>
+        <v>0.00115774248672989</v>
       </c>
     </row>
     <row r="254">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0224123279023355</v>
+        <v>0.0224123279023351</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00695057398974983</v>
+        <v>0.00695057724616715</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0234906939804061</v>
+        <v>0.0234906939804032</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>0.024083240067331</v>
+        <v>0.0241211390598349</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00752399890821049</v>
+        <v>0.00752480599743124</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.0000661487100493166</v>
+        <v>-0.0000636527514688642</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00117395900811673</v>
+        <v>0.00117395900811713</v>
       </c>
     </row>
     <row r="263">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0218254441242244</v>
+        <v>0.0218254441242253</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00536916454577766</v>
+        <v>0.00536916507964616</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0231912741290031</v>
+        <v>0.0231912741289933</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0226266927605191</v>
+        <v>0.0226635528338785</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00766204103677241</v>
+        <v>0.00766271567650037</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.000057953913632583</v>
+        <v>0.0000452366419631527</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00088982289190199</v>
+        <v>0.000889822891901737</v>
       </c>
     </row>
     <row r="272">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.017824657114778</v>
+        <v>0.0178246571147803</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00697255774678183</v>
+        <v>0.00697255834702252</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>0.019088963100765</v>
+        <v>0.0190889631007757</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0186116575132496</v>
+        <v>0.0180148707413628</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00565801013833867</v>
+        <v>0.00565730645572228</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.0000673847433464964</v>
+        <v>-0.000064947363938145</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00051820755505643</v>
+        <v>0.000518207555056424</v>
       </c>
     </row>
     <row r="281">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0199652793082651</v>
+        <v>0.0199652793082645</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00677435397263157</v>
+        <v>0.0067743544799556</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0218178166949564</v>
+        <v>0.0218178166949608</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0180116528814593</v>
+        <v>0.0178335133081605</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.00559504099200817</v>
+        <v>0.00559414809420932</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.0000729530924026671</v>
+        <v>-0.0000702473568401088</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00035948232849936</v>
+        <v>0.000359482328498191</v>
       </c>
     </row>
     <row r="290">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0161777361362206</v>
+        <v>0.016177736136223</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0043130825479434</v>
+        <v>0.00431308254793993</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0193279267568017</v>
+        <v>0.0193279267567869</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0194312311688651</v>
+        <v>0.0179584825928382</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.00622228961586662</v>
+        <v>0.0062178316889892</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.0000739593830506007</v>
+        <v>-0.0000711770968643663</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00045852476740722</v>
+        <v>0.000458524767406582</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.0129989213625676</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0005991530820868</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.00293639576861174</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0187894757268949</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.018034575798282</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.00607403440415888</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.0000767879942359001</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.000357024504144906</v>
       </c>
     </row>
   </sheetData>
